--- a/KDTree/results/result_mpi_polus_2.xlsx
+++ b/KDTree/results/result_mpi_polus_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anr/Desktop/SpecSem/SpecSem/KDTree/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F2DE97-A1B4-B348-8E11-FE2C6E96CE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C6683C8-B3A0-9644-A3C4-00259936ED4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>data_type</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>points_found</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>10000000</t>
   </si>
   <si>
     <t>d</t>
@@ -90,7 +81,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₽&quot;_-;\-* #,##0.00\ &quot;₽&quot;_-;_-* &quot;-&quot;??\ &quot;₽&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,12 +96,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,10 +150,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -153,8 +162,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Денежный" xfId="1" builtinId="4"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,14 +468,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="12.1640625" bestFit="1" customWidth="1"/>
@@ -487,39 +498,39 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
+      <c r="B2" s="3">
+        <v>100000</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -565,8 +576,8 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
+      <c r="B3" s="3">
+        <v>100000</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -612,8 +623,8 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B4" s="3">
+        <v>100000</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -659,8 +670,8 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>3</v>
+      <c r="B5" s="3">
+        <v>100000</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -706,8 +717,8 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>3</v>
+      <c r="B6" s="3">
+        <v>100000</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -753,8 +764,8 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
-        <v>3</v>
+      <c r="B7" s="3">
+        <v>100000</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -800,8 +811,8 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
-        <v>3</v>
+      <c r="B8" s="3">
+        <v>100000</v>
       </c>
       <c r="C8">
         <v>15</v>
@@ -847,8 +858,8 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
-        <v>3</v>
+      <c r="B9" s="3">
+        <v>100000</v>
       </c>
       <c r="C9">
         <v>16</v>
@@ -894,8 +905,8 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>3</v>
+      <c r="B10" s="3">
+        <v>100000</v>
       </c>
       <c r="C10">
         <v>31</v>
@@ -941,8 +952,8 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>3</v>
+      <c r="B11" s="3">
+        <v>100000</v>
       </c>
       <c r="C11">
         <v>32</v>
@@ -988,8 +999,8 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>4</v>
+      <c r="B12" s="3">
+        <v>1000000</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -1035,8 +1046,8 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>4</v>
+      <c r="B13" s="3">
+        <v>1000000</v>
       </c>
       <c r="C13">
         <v>2</v>
@@ -1082,8 +1093,8 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>4</v>
+      <c r="B14" s="3">
+        <v>1000000</v>
       </c>
       <c r="C14">
         <v>3</v>
@@ -1129,8 +1140,8 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>4</v>
+      <c r="B15" s="3">
+        <v>1000000</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -1176,8 +1187,8 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>4</v>
+      <c r="B16" s="3">
+        <v>1000000</v>
       </c>
       <c r="C16">
         <v>7</v>
@@ -1223,8 +1234,8 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
-        <v>4</v>
+      <c r="B17" s="3">
+        <v>1000000</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1270,8 +1281,8 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
-        <v>4</v>
+      <c r="B18" s="3">
+        <v>1000000</v>
       </c>
       <c r="C18">
         <v>15</v>
@@ -1317,8 +1328,8 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>4</v>
+      <c r="B19" s="3">
+        <v>1000000</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -1364,8 +1375,8 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>4</v>
+      <c r="B20" s="3">
+        <v>1000000</v>
       </c>
       <c r="C20">
         <v>31</v>
@@ -1411,8 +1422,8 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>4</v>
+      <c r="B21" s="3">
+        <v>1000000</v>
       </c>
       <c r="C21">
         <v>32</v>
@@ -1458,8 +1469,8 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
+      <c r="B22" s="3">
+        <v>10000000</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1505,8 +1516,8 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
+      <c r="B23" s="3">
+        <v>10000000</v>
       </c>
       <c r="C23">
         <v>2</v>
@@ -1552,8 +1563,8 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
+      <c r="B24" s="3">
+        <v>10000000</v>
       </c>
       <c r="C24">
         <v>3</v>
@@ -1599,8 +1610,8 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
+      <c r="B25" s="3">
+        <v>10000000</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -1646,8 +1657,8 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
+      <c r="B26" s="3">
+        <v>10000000</v>
       </c>
       <c r="C26">
         <v>7</v>
@@ -1693,8 +1704,8 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
+      <c r="B27" s="3">
+        <v>10000000</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -1740,8 +1751,8 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
+      <c r="B28" s="3">
+        <v>10000000</v>
       </c>
       <c r="C28">
         <v>15</v>
@@ -1787,8 +1798,8 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
+      <c r="B29" s="3">
+        <v>10000000</v>
       </c>
       <c r="C29">
         <v>16</v>
@@ -1834,8 +1845,8 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
+      <c r="B30" s="3">
+        <v>10000000</v>
       </c>
       <c r="C30">
         <v>31</v>
@@ -1881,8 +1892,8 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
+      <c r="B31" s="3">
+        <v>10000000</v>
       </c>
       <c r="C31">
         <v>32</v>
@@ -1929,7 +1940,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -1976,7 +1987,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -2023,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>3</v>
@@ -2070,7 +2081,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -2117,7 +2128,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -2164,7 +2175,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C37">
         <v>8</v>
@@ -2211,7 +2222,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C38">
         <v>15</v>
@@ -2258,7 +2269,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C39">
         <v>16</v>
@@ -2305,7 +2316,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C40">
         <v>31</v>
@@ -2352,7 +2363,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C41">
         <v>32</v>
@@ -2399,7 +2410,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2446,7 +2457,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C43">
         <v>2</v>
@@ -2493,7 +2504,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2540,7 +2551,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>4</v>
@@ -2587,7 +2598,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C46">
         <v>7</v>
@@ -2634,7 +2645,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C47">
         <v>8</v>
@@ -2681,7 +2692,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C48">
         <v>15</v>
@@ -2728,7 +2739,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C49">
         <v>16</v>
@@ -2775,7 +2786,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C50">
         <v>31</v>
@@ -2822,7 +2833,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>32</v>
@@ -2865,6 +2876,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>